--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitgud\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F1395-D170-4B11-AEA9-2A09E2FC6004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3F3019DC-4E00-419C-8223-5E8B6666315A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case" sheetId="1" r:id="rId1"/>
     <sheet name="Classes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Авторизироваться</t>
   </si>
@@ -173,12 +172,18 @@
   </si>
   <si>
     <t>Эверстов Владимир Васильевич</t>
+  </si>
+  <si>
+    <t>Имеев Леонид</t>
+  </si>
+  <si>
+    <t>Гуринов Айтал</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B657FC-4889-477C-A204-C57FC420E149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -748,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A930ECDE-B596-4699-B295-078BB6C2B20E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,6 +785,9 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -870,6 +878,9 @@
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,9 +879,6 @@
       <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -889,6 +886,9 @@
       </c>
       <c r="B14" t="s">
         <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitgud\yakutcement\TechDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Авторизироваться</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Гуринов Айтал</t>
+  </si>
+  <si>
+    <t>Будищев Вадим</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,6 +799,9 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\yakutcement\TechDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pizi\Desktop\nefu\3sred\everestov\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Авторизироваться</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Будищев Вадим</t>
+  </si>
+  <si>
+    <t>Алексеев Станислав</t>
   </si>
 </sst>
 </file>
@@ -539,14 +542,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -557,7 +560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -565,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -573,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -581,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -589,7 +592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -597,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -605,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -613,7 +616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -621,7 +624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -629,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -637,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -645,7 +648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -653,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -661,7 +664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -669,7 +672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -677,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -685,7 +688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -693,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -701,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -709,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -717,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -725,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -733,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -741,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -760,17 +763,17 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -781,7 +784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -792,7 +795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -803,7 +806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -811,15 +814,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -830,7 +836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -838,7 +844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -846,7 +852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -854,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -862,7 +868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -870,7 +876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -878,7 +884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -886,7 +892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -897,7 +903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -905,7 +911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -913,7 +919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -921,7 +927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -929,7 +935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DA5F5-8F8C-40D0-9F1D-3CDB4CD06CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case" sheetId="1" r:id="rId1"/>
     <sheet name="Classes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr refMode="A1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>№</t>
   </si>
@@ -170,23 +185,73 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Красильников Егор Егорович</t>
+  </si>
+  <si>
+    <t>Алексеев Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Винокурова Сахайаана Степановна</t>
+  </si>
+  <si>
+    <t>Готовцев Рустам Васильевич</t>
+  </si>
+  <si>
+    <t>Егорова Татьяна Сергеевна</t>
+  </si>
+  <si>
+    <t>Коркин Айдын Иванович</t>
+  </si>
+  <si>
+    <t>Лебедкин Анатолий Константинович</t>
+  </si>
+  <si>
+    <t>Мигалкин Егор Гаврильевич</t>
+  </si>
+  <si>
+    <t>Тарабукин Иван Михайлович</t>
+  </si>
+  <si>
+    <t>Халыев Ньургун Юрьевич</t>
+  </si>
+  <si>
+    <t>Захарова Милана Дмитриевна, Хорчоев Артур Эдуардович</t>
+  </si>
+  <si>
+    <t>Оконешникова Майя Николаевна, Парников Григорий Кириллович</t>
+  </si>
+  <si>
+    <t>Алексеев Станислав Капитонович, Будищев Вадим Алексеевич, Винокурова Сахайаана Степановна, Готовцев Рустам Васильевич</t>
+  </si>
+  <si>
+    <t>Алексеев Никита Сергеевич, Гуринов Айтал Иванович, Егорова Татьяна Сергеевна, Захарова Милана Дмитриевна</t>
+  </si>
+  <si>
+    <t>Имеев Леонид Владимирович, Коркин Айдын Иванович, Красильников Егор Егорович, Лебедкин Анатолий Константинович</t>
+  </si>
+  <si>
+    <t>Мигалкин Егор Гаврильевич, Оконешникова Майя Николаевна, Саввин Антон Васильевич</t>
+  </si>
+  <si>
+    <t>Халыев Ньургун Юрьевич, Хорчоев Артур Эдуардович, Парников Григорий Кириллович, Тарабукин Иван Михайлович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -209,42 +274,340 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="C13" activeCell="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" customHeight="true" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="4.42578125" customWidth="true"/>
-    <col max="2" min="2" style="1" width="34.85546875" customWidth="true"/>
-    <col max="3" min="3" style="1" width="30.140625" customWidth="true"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -255,192 +618,209 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -448,31 +828,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699999988079071" top="0.75" right="0.699999988079071" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" fitToHeight="1" fitToWidth="1" paperSize="9" cellComments="none"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="C16" activeCell="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" customHeight="true" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="4.28515625" customWidth="true"/>
-    <col max="2" min="2" style="1" width="28.42578125" customWidth="true"/>
-    <col max="3" min="3" style="1" width="27.140625" customWidth="true"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +859,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -494,8 +870,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -505,16 +881,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -524,8 +903,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -535,64 +914,85 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -602,51 +1002,63 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699999988079071" top="0.75" right="0.699999988079071" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="default" fitToHeight="0" fitToWidth="0" cellComments="none"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
+  <pageSetup fitToWidth="0" fitToHeight="0"/>
 </worksheet>
 </file>
--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783DA5F5-8F8C-40D0-9F1D-3CDB4CD06CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F129E5-7966-40B0-AAF4-08C45A67C4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>Халыев Ньургун Юрьевич, Хорчоев Артур Эдуардович, Парников Григорий Кириллович, Тарабукин Иван Михайлович</t>
+  </si>
+  <si>
+    <t>Добавить товар</t>
+  </si>
+  <si>
+    <t>Редактировать товар</t>
+  </si>
+  <si>
+    <t>Удалить товар</t>
   </si>
 </sst>
 </file>
@@ -256,12 +265,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -276,10 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,31 +712,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -744,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,6 +843,30 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -837,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,7 +906,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -874,7 +917,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -907,7 +950,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -951,7 +994,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="1" t="s">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F129E5-7966-40B0-AAF4-08C45A67C4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C5AFA-0E24-42E3-806C-04A9E054B77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Редактировать пользователя</t>
   </si>
   <si>
-    <t>Удалить пользователя</t>
-  </si>
-  <si>
     <t>Изменить справочную информацию</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Удалить товар</t>
+  </si>
+  <si>
+    <t>Удалить пользователя+список пользователей</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7"/>
     </row>
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8"/>
     </row>
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9"/>
     </row>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10"/>
     </row>
@@ -730,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11"/>
     </row>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -907,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,10 +929,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,10 +951,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,10 +973,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,10 +984,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,10 +1061,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,10 +1083,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,10 +1094,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C5AFA-0E24-42E3-806C-04A9E054B77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E758216-269A-4E3F-8DE5-A7999251C3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Удалить пользователя+список пользователей</t>
+  </si>
+  <si>
+    <t>Эвертов Владимир Васильевич</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -641,8 +644,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +699,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E758216-269A-4E3F-8DE5-A7999251C3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2DAF9-69A9-47CD-82D1-B7A1B5459CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>Удалить пользователя+список пользователей</t>
-  </si>
-  <si>
-    <t>Эвертов Владимир Васильевич</t>
   </si>
 </sst>
 </file>
@@ -644,9 +641,6 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2DAF9-69A9-47CD-82D1-B7A1B5459CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8648D585-D82B-4C10-A5D5-D94F6B37D0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -265,7 +265,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,7 +620,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -638,7 +645,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -668,7 +675,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
@@ -713,7 +720,9 @@
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8648D585-D82B-4C10-A5D5-D94F6B37D0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855612CE-B16F-4A38-BF85-578F38D6E43F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -620,7 +620,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,6 +748,9 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">

--- a/TechDoc/Use Case List.xlsx
+++ b/TechDoc/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Documents\WorkLectures\Системы программирования\Studentswork\pm-17\yakutcement\TechDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2DAF9-69A9-47CD-82D1-B7A1B5459CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855612CE-B16F-4A38-BF85-578F38D6E43F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -265,7 +265,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,7 +620,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -638,7 +645,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -668,7 +675,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
@@ -713,7 +720,9 @@
       <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -739,6 +748,9 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
